--- a/Configration/MailerKEY.xlsx
+++ b/Configration/MailerKEY.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gep1-my.sharepoint.com/personal/allen_richy_gep_com/Documents/GEP Automation/Configration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{03972736-D409-4F26-B078-7EF39E22F02B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A9884813-93D0-4AA3-B54D-B3532EC4C2A9}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{03972736-D409-4F26-B078-7EF39E22F02B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D0DC0E11-33AB-4E61-A245-561841631AF0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AE7080D3-F84A-4BB7-A160-8FECEEA3F69B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{AE7080D3-F84A-4BB7-A160-8FECEEA3F69B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="484">
   <si>
     <t>Default</t>
   </si>
@@ -42,9 +43,6 @@
     <t>Subject</t>
   </si>
   <si>
-    <t>OccurrenceID</t>
-  </si>
-  <si>
     <t>DUP_TP01</t>
   </si>
   <si>
@@ -94,13 +92,1408 @@
   </si>
   <si>
     <t>HRUserName</t>
+  </si>
+  <si>
+    <t>OccurenceID</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>ARIPO</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>BBM and BBDM</t>
+  </si>
+  <si>
+    <t>BX</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>BZ</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>BV</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>VG</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>Burma</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Cote d’Ivoire</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>Czechoslovakia</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>EAPO</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>East Germany</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>EPO</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>GQ</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>Falkland Island</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>FJ</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>GY</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>IIB</t>
+  </si>
+  <si>
+    <t>IB</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>JM</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>Kampuchea</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>LY</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>Netherlands(Holland)</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>OAPI</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>OHIM</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Other Country</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>Other Country in Africa</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>Other Country in Asia</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>Other Country in Europe</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>Other Country in North America</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>Other Country In Oceania</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>Other Country in South America</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Republic of Yemen</t>
+  </si>
+  <si>
+    <t>YD</t>
+  </si>
+  <si>
+    <t>Rhodesia</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>South Georgia and The South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>Soviet Union</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>UZ</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>VU</t>
+  </si>
+  <si>
+    <t>Vatican City</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>Volta</t>
+  </si>
+  <si>
+    <t>HV</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>EH</t>
+  </si>
+  <si>
+    <t>WIPO</t>
+  </si>
+  <si>
+    <t>WO</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>Yugoslavia</t>
+  </si>
+  <si>
+    <t>YU</t>
+  </si>
+  <si>
+    <t>Zaire</t>
+  </si>
+  <si>
+    <t>ZR</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>ZW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +1508,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,8 +1528,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,13 +1543,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8EB51E-608F-4C76-81DA-869AF884F91E}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -481,51 +1898,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -533,65 +1950,1937 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3102E7-9824-45D7-A6A4-3570F41EEA67}">
+  <dimension ref="A1:B232"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B232"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A135" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A143" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A145" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A147" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A152" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A153" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A154" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A155" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A156" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A157" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A158" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A159" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A160" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A161" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A162" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A163" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A164" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A165" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A166" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A167" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A168" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A169" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A170" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A171" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A172" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A173" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A174" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A175" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A176" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A177" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A178" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A179" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A180" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A181" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A182" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A183" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A184" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A185" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A186" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A187" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A188" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A189" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A190" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A191" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A192" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A193" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A194" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A195" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A196" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A197" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A198" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A199" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A200" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A201" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A202" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A203" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A204" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A205" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A206" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A207" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A208" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A209" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A210" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A211" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A212" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A213" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A214" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A215" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A216" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A217" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A218" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A219" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A220" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A221" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A222" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A223" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A224" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A225" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A226" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A227" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A228" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A229" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A230" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A231" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Configration/MailerKEY.xlsx
+++ b/Configration/MailerKEY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gep1-my.sharepoint.com/personal/allen_richy_gep_com/Documents/GEP Automation/Configration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashish_jadhav\Documents\UiPath\GEP_Manageengine\Configration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{03972736-D409-4F26-B078-7EF39E22F02B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D0DC0E11-33AB-4E61-A245-561841631AF0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2884A7-D19E-4431-B3EB-46E65EA52E83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{AE7080D3-F84A-4BB7-A160-8FECEEA3F69B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE7080D3-F84A-4BB7-A160-8FECEEA3F69B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1878,22 +1878,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8EB51E-608F-4C76-81DA-869AF884F91E}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -2017,13 +2017,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3102E7-9824-45D7-A6A4-3570F41EEA67}">
   <dimension ref="A1:B232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>64</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>68</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>70</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>72</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>74</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>76</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>78</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>80</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>82</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>84</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>86</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>88</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>90</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>94</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>96</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>98</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>100</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>102</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>104</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>106</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>108</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>110</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>112</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>114</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>116</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>118</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>120</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>122</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>124</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>126</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>128</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>130</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>132</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>134</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>136</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>138</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>140</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>142</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>144</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>146</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>148</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>150</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>152</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>154</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>156</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>158</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>160</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>162</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>164</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>166</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>168</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>170</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>172</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>174</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>176</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>178</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>180</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>182</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>184</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>186</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>188</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>190</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>192</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>194</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>196</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>198</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>200</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>202</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>204</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>206</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>208</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>210</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>212</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>214</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>216</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>218</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>220</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>222</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>224</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>226</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>228</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>230</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>232</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>234</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>236</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>238</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>240</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>242</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>244</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>246</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>248</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>250</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>252</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>254</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>256</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>258</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>260</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>262</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>264</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>266</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>268</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>270</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>272</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>274</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>276</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>278</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>280</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>282</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>284</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>286</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>288</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>290</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>292</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>294</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>296</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>298</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>300</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>302</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>304</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>306</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>308</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>310</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>312</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>314</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>316</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>318</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>320</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>322</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>324</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>326</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>328</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>330</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:2" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>332</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>334</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:2" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>336</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>338</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>340</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>342</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>344</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>346</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>348</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>350</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>352</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>354</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>356</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>358</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>360</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>362</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>364</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>366</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>368</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>370</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>372</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>374</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>376</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>378</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>380</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>382</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>384</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>386</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>388</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>390</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>392</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>394</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>396</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>398</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>400</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>402</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>404</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>406</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>408</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>410</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>412</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>414</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>416</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>418</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>420</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>422</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>424</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>426</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>428</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>430</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>432</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>434</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>436</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>438</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>440</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>442</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>444</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>446</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>448</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>450</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>452</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>454</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>456</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>458</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>460</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>462</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>464</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>466</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>468</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>470</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>472</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>474</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>476</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>478</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>480</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>482</v>
       </c>
